--- a/contents/cms/file_template/jiagepilu-import-template.xlsx
+++ b/contents/cms/file_template/jiagepilu-import-template.xlsx
@@ -16,14 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>numIid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>price</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -31,14 +23,21 @@
     <t>imageName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>num_iid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ ;[Red]\-0.00\ "/>
-    <numFmt numFmtId="177" formatCode="0_ ;[Red]\-0\ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -114,11 +113,11 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -426,29 +425,29 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.5" style="6" customWidth="1"/>
     <col min="2" max="2" width="17.375" customWidth="1"/>
     <col min="3" max="3" width="13.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
